--- a/report_ca_nhan/CẦN THƠ/NV-9 Lê Văn Linh 7-2024.xlsx
+++ b/report_ca_nhan/CẦN THƠ/NV-9 Lê Văn Linh 7-2024.xlsx
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>595000</v>
+        <v>665000</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6982142.857142857</v>
+        <v>7803571.428571429</v>
       </c>
     </row>
     <row r="13">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10473214.28571429</v>
+        <v>11705357.14285714</v>
       </c>
     </row>
     <row r="21">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1654000</v>
+        <v>-1584000</v>
       </c>
     </row>
     <row r="29">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7892142.857142857</v>
+        <v>8713571.428571429</v>
       </c>
     </row>
     <row r="30">
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>10473214.28571429</v>
+        <v>11705357.14285714</v>
       </c>
     </row>
     <row r="31">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16711357.14285714</v>
+        <v>18834928.57142857</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/CẦN THƠ/NV-9 Lê Văn Linh 7-2024.xlsx
+++ b/report_ca_nhan/CẦN THƠ/NV-9 Lê Văn Linh 7-2024.xlsx
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2249000</v>
+        <v>-4249000</v>
       </c>
     </row>
     <row r="12">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1584000</v>
+        <v>-3584000</v>
       </c>
     </row>
     <row r="29">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18834928.57142857</v>
+        <v>16834928.57142857</v>
       </c>
     </row>
   </sheetData>
